--- a/Code/Results/Cases/Case_0_161/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_161/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9521532111149017</v>
+        <v>1.029790378231177</v>
       </c>
       <c r="D2">
-        <v>0.9610677770700006</v>
+        <v>1.032434797430825</v>
       </c>
       <c r="E2">
-        <v>0.9642196937199621</v>
+        <v>1.037666915295026</v>
       </c>
       <c r="F2">
-        <v>0.9503489263602622</v>
+        <v>1.044116600494014</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.031502659650744</v>
+        <v>1.025530627837826</v>
       </c>
       <c r="J2">
-        <v>0.9758656697858805</v>
+        <v>1.034935204090576</v>
       </c>
       <c r="K2">
-        <v>0.9730975337331641</v>
+        <v>1.035240037679677</v>
       </c>
       <c r="L2">
-        <v>0.9762010844176209</v>
+        <v>1.040457146806198</v>
       </c>
       <c r="M2">
-        <v>0.9625462375831763</v>
+        <v>1.046888555230884</v>
       </c>
       <c r="N2">
-        <v>0.9772515109703331</v>
+        <v>1.036404930789112</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.963197367774742</v>
+        <v>1.031455340026064</v>
       </c>
       <c r="D3">
-        <v>0.9713310517213402</v>
+        <v>1.03401324764155</v>
       </c>
       <c r="E3">
-        <v>0.9751706506572203</v>
+        <v>1.039244068791146</v>
       </c>
       <c r="F3">
-        <v>0.9653115438774801</v>
+        <v>1.046026200310985</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.03559388961921</v>
+        <v>1.025746490092146</v>
       </c>
       <c r="J3">
-        <v>0.9847441934444902</v>
+        <v>1.036237693180467</v>
       </c>
       <c r="K3">
-        <v>0.982344393018013</v>
+        <v>1.036625201758676</v>
       </c>
       <c r="L3">
-        <v>0.9861314045623751</v>
+        <v>1.041842126006698</v>
       </c>
       <c r="M3">
-        <v>0.976408391611709</v>
+        <v>1.048606462676094</v>
       </c>
       <c r="N3">
-        <v>0.9861426431509192</v>
+        <v>1.037709269562908</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9698541965210268</v>
+        <v>1.032523344385266</v>
       </c>
       <c r="D4">
-        <v>0.9775140842389085</v>
+        <v>1.035025638085954</v>
       </c>
       <c r="E4">
-        <v>0.9817291502437726</v>
+        <v>1.040252915167518</v>
       </c>
       <c r="F4">
-        <v>0.9741779820865462</v>
+        <v>1.047241185262533</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.037953898149361</v>
+        <v>1.025875705303043</v>
       </c>
       <c r="J4">
-        <v>0.9900617860232838</v>
+        <v>1.037070919323903</v>
       </c>
       <c r="K4">
-        <v>0.9878916904093665</v>
+        <v>1.037512069345145</v>
       </c>
       <c r="L4">
-        <v>0.9920532076126972</v>
+        <v>1.04272617204335</v>
       </c>
       <c r="M4">
-        <v>0.9845983814081616</v>
+        <v>1.049697050643813</v>
       </c>
       <c r="N4">
-        <v>0.9914677873211108</v>
+        <v>1.03854367898304</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9725514111274373</v>
+        <v>1.032970131503664</v>
       </c>
       <c r="D5">
-        <v>0.980018753440755</v>
+        <v>1.035449130529505</v>
       </c>
       <c r="E5">
-        <v>0.984377489612998</v>
+        <v>1.040674274147368</v>
       </c>
       <c r="F5">
-        <v>0.9777377241003252</v>
+        <v>1.047747074219561</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.038886067976601</v>
+        <v>1.025927532733855</v>
       </c>
       <c r="J5">
-        <v>0.9922089669021859</v>
+        <v>1.037418945245009</v>
       </c>
       <c r="K5">
-        <v>0.990133644642454</v>
+        <v>1.037882681659978</v>
       </c>
       <c r="L5">
-        <v>0.9944387566963137</v>
+        <v>1.043094955147755</v>
       </c>
       <c r="M5">
-        <v>0.9878809154547019</v>
+        <v>1.05015055390555</v>
       </c>
       <c r="N5">
-        <v>0.9936180174431463</v>
+        <v>1.038892199140873</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9729987317428364</v>
+        <v>1.033045020849787</v>
       </c>
       <c r="D6">
-        <v>0.9804341116109426</v>
+        <v>1.035520113550262</v>
       </c>
       <c r="E6">
-        <v>0.9848161984134143</v>
+        <v>1.040744861324232</v>
       </c>
       <c r="F6">
-        <v>0.9783262526062451</v>
+        <v>1.047831729916726</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039039279062337</v>
+        <v>1.025936088770316</v>
       </c>
       <c r="J6">
-        <v>0.9925646486712431</v>
+        <v>1.03747724848126</v>
       </c>
       <c r="K6">
-        <v>0.9905051408312362</v>
+        <v>1.037944779356876</v>
       </c>
       <c r="L6">
-        <v>0.9948336078989698</v>
+        <v>1.043156708109249</v>
       </c>
       <c r="M6">
-        <v>0.9884232868270146</v>
+        <v>1.05022640849053</v>
       </c>
       <c r="N6">
-        <v>0.9939742043211126</v>
+        <v>1.038950585174407</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9698906169367653</v>
+        <v>1.0325293229846</v>
       </c>
       <c r="D7">
-        <v>0.9775479068106664</v>
+        <v>1.035031305087657</v>
       </c>
       <c r="E7">
-        <v>0.9817649454958023</v>
+        <v>1.040258556185227</v>
       </c>
       <c r="F7">
-        <v>0.9742261755243706</v>
+        <v>1.047247964122297</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.03796657962304</v>
+        <v>1.025876407613015</v>
       </c>
       <c r="J7">
-        <v>0.9900908080295423</v>
+        <v>1.037075578514612</v>
       </c>
       <c r="K7">
-        <v>0.9879219855187368</v>
+        <v>1.037517030195707</v>
       </c>
       <c r="L7">
-        <v>0.9920854732088175</v>
+        <v>1.042731110973677</v>
       </c>
       <c r="M7">
-        <v>0.9846428441440582</v>
+        <v>1.049703129878111</v>
       </c>
       <c r="N7">
-        <v>0.9914968505419471</v>
+        <v>1.038548344790334</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9559979888304312</v>
+        <v>1.030355013829105</v>
       </c>
       <c r="D8">
-        <v>0.964641520247891</v>
+        <v>1.032970119311596</v>
       </c>
       <c r="E8">
-        <v>0.9680419679837692</v>
+        <v>1.038202361576885</v>
       </c>
       <c r="F8">
-        <v>0.9555936172422458</v>
+        <v>1.044766268594874</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.03295094484962</v>
+        <v>1.025605752124009</v>
       </c>
       <c r="J8">
-        <v>0.9789644284149298</v>
+        <v>1.03537738616054</v>
       </c>
       <c r="K8">
-        <v>0.9763227464680281</v>
+        <v>1.035710130553485</v>
       </c>
       <c r="L8">
-        <v>0.9796729678884863</v>
+        <v>1.040927739051362</v>
       </c>
       <c r="M8">
-        <v>0.9674107041733039</v>
+        <v>1.047473512424248</v>
       </c>
       <c r="N8">
-        <v>0.9803546701920685</v>
+        <v>1.036847740808334</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.926706476785891</v>
+        <v>1.026450511984433</v>
       </c>
       <c r="D9">
-        <v>0.937385955600491</v>
+        <v>1.029267837817265</v>
       </c>
       <c r="E9">
-        <v>0.938643351631565</v>
+        <v>1.034487958716023</v>
       </c>
       <c r="F9">
-        <v>0.9146449163349402</v>
+        <v>1.040232445371715</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.021310518098892</v>
+        <v>1.025048185766045</v>
       </c>
       <c r="J9">
-        <v>0.9551421859203086</v>
+        <v>1.032310269153126</v>
       </c>
       <c r="K9">
-        <v>0.9515837427210313</v>
+        <v>1.032452534312113</v>
       </c>
       <c r="L9">
-        <v>0.9528170564614801</v>
+        <v>1.037655476869034</v>
       </c>
       <c r="M9">
-        <v>0.9292933267112959</v>
+        <v>1.043381277903752</v>
       </c>
       <c r="N9">
-        <v>0.9564985973806556</v>
+        <v>1.033776268142966</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9012136726391667</v>
+        <v>1.023796046083306</v>
       </c>
       <c r="D10">
-        <v>0.9135853619767624</v>
+        <v>1.026750248339813</v>
       </c>
       <c r="E10">
-        <v>0.9124758718351047</v>
+        <v>1.031947920622538</v>
       </c>
       <c r="F10">
-        <v>0.8769738371860072</v>
+        <v>1.037097979329409</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.010075224447769</v>
+        <v>1.024621456462771</v>
       </c>
       <c r="J10">
-        <v>0.9339800264009497</v>
+        <v>1.03021327089459</v>
       </c>
       <c r="K10">
-        <v>0.929712264637495</v>
+        <v>1.03022922401464</v>
       </c>
       <c r="L10">
-        <v>0.9286282360383478</v>
+        <v>1.035408059546497</v>
       </c>
       <c r="M10">
-        <v>0.8939869847698161</v>
+        <v>1.040539659534501</v>
       </c>
       <c r="N10">
-        <v>0.9353063851674456</v>
+        <v>1.031676291906374</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.8871091520805231</v>
+        <v>1.022633876220492</v>
       </c>
       <c r="D11">
-        <v>0.9003658866855283</v>
+        <v>1.025647865043605</v>
       </c>
       <c r="E11">
-        <v>0.8977119685969189</v>
+        <v>1.030832333681935</v>
       </c>
       <c r="F11">
-        <v>0.8551564884871585</v>
+        <v>1.035713255492515</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.003393584227672</v>
+        <v>1.024423423685298</v>
       </c>
       <c r="J11">
-        <v>0.9220694566860018</v>
+        <v>1.029292367624328</v>
       </c>
       <c r="K11">
-        <v>0.9174477683977605</v>
+        <v>1.029253774775063</v>
       </c>
       <c r="L11">
-        <v>0.9148602442364203</v>
+        <v>1.034418700953928</v>
       </c>
       <c r="M11">
-        <v>0.8734466176550496</v>
+        <v>1.039281422383079</v>
       </c>
       <c r="N11">
-        <v>0.9233789010773407</v>
+        <v>1.030754080847839</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.8809806823236969</v>
+        <v>1.022200226640991</v>
       </c>
       <c r="D12">
-        <v>0.894606398984764</v>
+        <v>1.02523650317517</v>
       </c>
       <c r="E12">
-        <v>0.8912207645064759</v>
+        <v>1.030415537075149</v>
       </c>
       <c r="F12">
-        <v>0.8454213485480607</v>
+        <v>1.035194695155057</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.000375391358049</v>
+        <v>1.024347854467616</v>
       </c>
       <c r="J12">
-        <v>0.9168415707681882</v>
+        <v>1.028948322670649</v>
       </c>
       <c r="K12">
-        <v>0.9120756197971135</v>
+        <v>1.028889490260004</v>
       </c>
       <c r="L12">
-        <v>0.9087776831239351</v>
+        <v>1.034048721726436</v>
       </c>
       <c r="M12">
-        <v>0.8642598456949044</v>
+        <v>1.038809801088181</v>
       </c>
       <c r="N12">
-        <v>0.9181435909618768</v>
+        <v>1.030409547310863</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.8823510083906805</v>
+        <v>1.022293335823582</v>
       </c>
       <c r="D13">
-        <v>0.8958951563407259</v>
+        <v>1.025324827893197</v>
       </c>
       <c r="E13">
-        <v>0.8926765694134214</v>
+        <v>1.030505051678372</v>
       </c>
       <c r="F13">
-        <v>0.8476126745104249</v>
+        <v>1.035306120114996</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.001056695778248</v>
+        <v>1.024364155652759</v>
       </c>
       <c r="J13">
-        <v>0.9180135267299486</v>
+        <v>1.029022211832539</v>
       </c>
       <c r="K13">
-        <v>0.9132793025890114</v>
+        <v>1.028967719931567</v>
       </c>
       <c r="L13">
-        <v>0.9101434519032126</v>
+        <v>1.034128196946043</v>
       </c>
       <c r="M13">
-        <v>0.8663288996664165</v>
+        <v>1.038911159377027</v>
       </c>
       <c r="N13">
-        <v>0.9193172112355287</v>
+        <v>1.030483541403838</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.8866257824371028</v>
+        <v>1.022598071051835</v>
       </c>
       <c r="D14">
-        <v>0.8999119991932052</v>
+        <v>1.025613900531133</v>
       </c>
       <c r="E14">
-        <v>0.8972017806744005</v>
+        <v>1.030797930792768</v>
       </c>
       <c r="F14">
-        <v>0.8543946224394043</v>
+        <v>1.035670477562689</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.00315818231446</v>
+        <v>1.024417218252293</v>
       </c>
       <c r="J14">
-        <v>0.9216583502291903</v>
+        <v>1.029263969424773</v>
       </c>
       <c r="K14">
-        <v>0.9170250647592818</v>
+        <v>1.029223703139586</v>
       </c>
       <c r="L14">
-        <v>0.9143828388950502</v>
+        <v>1.034388169406463</v>
       </c>
       <c r="M14">
-        <v>0.8727281458412781</v>
+        <v>1.039242525317561</v>
       </c>
       <c r="N14">
-        <v>0.9229672108022062</v>
+        <v>1.030725642319584</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.8891177917617277</v>
+        <v>1.022785566188589</v>
       </c>
       <c r="D15">
-        <v>0.9022513577297296</v>
+        <v>1.025791756146839</v>
       </c>
       <c r="E15">
-        <v>0.8998288910680761</v>
+        <v>1.030978061214921</v>
       </c>
       <c r="F15">
-        <v>0.858311852080295</v>
+        <v>1.035894409466145</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.004367069742979</v>
+        <v>1.024449644784135</v>
       </c>
       <c r="J15">
-        <v>0.9237756278787123</v>
+        <v>1.029412660470606</v>
       </c>
       <c r="K15">
-        <v>0.9192025225108273</v>
+        <v>1.029381161841254</v>
       </c>
       <c r="L15">
-        <v>0.9168399514858534</v>
+        <v>1.034548015823745</v>
       </c>
       <c r="M15">
-        <v>0.8764213961372358</v>
+        <v>1.039446124391754</v>
       </c>
       <c r="N15">
-        <v>0.9250874952288455</v>
+        <v>1.030874544523756</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9020603744706255</v>
+        <v>1.023872902267084</v>
       </c>
       <c r="D16">
-        <v>0.9143775692464001</v>
+        <v>1.026823147812767</v>
       </c>
       <c r="E16">
-        <v>0.9133550662644084</v>
+        <v>1.03202162240292</v>
       </c>
       <c r="F16">
-        <v>0.8782595952568917</v>
+        <v>1.03718929287952</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.010465284812845</v>
+        <v>1.02463431832802</v>
       </c>
       <c r="J16">
-        <v>0.934690077164627</v>
+        <v>1.030274112942586</v>
       </c>
       <c r="K16">
-        <v>0.9304444786685897</v>
+        <v>1.030293689132628</v>
       </c>
       <c r="L16">
-        <v>0.9294453129743115</v>
+        <v>1.035473374093617</v>
       </c>
       <c r="M16">
-        <v>0.895195413800762</v>
+        <v>1.040622572219335</v>
       </c>
       <c r="N16">
-        <v>0.9360174442846512</v>
+        <v>1.031737220357057</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9091927390231491</v>
+        <v>1.024551506634015</v>
       </c>
       <c r="D17">
-        <v>0.9210456511172549</v>
+        <v>1.027466800181903</v>
       </c>
       <c r="E17">
-        <v>0.9207319718462893</v>
+        <v>1.032671971030577</v>
       </c>
       <c r="F17">
-        <v>0.8889910763796737</v>
+        <v>1.03799412425406</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.013703821311923</v>
+        <v>1.024746596848006</v>
       </c>
       <c r="J17">
-        <v>0.9406507563913954</v>
+        <v>1.030810998111268</v>
       </c>
       <c r="K17">
-        <v>0.9365957725317142</v>
+        <v>1.030862651111752</v>
       </c>
       <c r="L17">
-        <v>0.9362889207854868</v>
+        <v>1.036049450769462</v>
       </c>
       <c r="M17">
-        <v>0.9052723602020382</v>
+        <v>1.04135302970903</v>
       </c>
       <c r="N17">
-        <v>0.9419865883596209</v>
+        <v>1.03227486796426</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9130942539928842</v>
+        <v>1.024946096566892</v>
       </c>
       <c r="D18">
-        <v>0.9246895508862681</v>
+        <v>1.027841053032357</v>
       </c>
       <c r="E18">
-        <v>0.9247461208428511</v>
+        <v>1.033049794110506</v>
       </c>
       <c r="F18">
-        <v>0.8947890396407836</v>
+        <v>1.038460923315393</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.015440342536918</v>
+        <v>1.024810809375942</v>
       </c>
       <c r="J18">
-        <v>0.9438963330379736</v>
+        <v>1.031122913615913</v>
       </c>
       <c r="K18">
-        <v>0.9399485166793263</v>
+        <v>1.031193290823122</v>
       </c>
       <c r="L18">
-        <v>0.940003888183773</v>
+        <v>1.036383905953662</v>
       </c>
       <c r="M18">
-        <v>0.9107098349718961</v>
+        <v>1.041776416751084</v>
       </c>
       <c r="N18">
-        <v>0.9452367740973098</v>
+        <v>1.032587226424699</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9143867593501178</v>
+        <v>1.025080434627928</v>
       </c>
       <c r="D19">
-        <v>0.9258961918724831</v>
+        <v>1.027968465051317</v>
       </c>
       <c r="E19">
-        <v>0.9260727822507787</v>
+        <v>1.033178366769403</v>
       </c>
       <c r="F19">
-        <v>0.8966989476540987</v>
+        <v>1.038619643486898</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.016010256800158</v>
+        <v>1.024832488045569</v>
       </c>
       <c r="J19">
-        <v>0.944969278406767</v>
+        <v>1.031229059627724</v>
       </c>
       <c r="K19">
-        <v>0.9410574075138175</v>
+        <v>1.031305823768526</v>
       </c>
       <c r="L19">
-        <v>0.9412302907821279</v>
+        <v>1.036497683351187</v>
       </c>
       <c r="M19">
-        <v>0.9124999237269233</v>
+        <v>1.04192032916737</v>
       </c>
       <c r="N19">
-        <v>0.9463112431715957</v>
+        <v>1.032693523176021</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9084558353393258</v>
+        <v>1.024478826230301</v>
       </c>
       <c r="D20">
-        <v>0.920357128380391</v>
+        <v>1.027397864625299</v>
       </c>
       <c r="E20">
-        <v>0.9199721541335468</v>
+        <v>1.032602351789082</v>
       </c>
       <c r="F20">
-        <v>0.8878903515132676</v>
+        <v>1.03790804768927</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.01337308111153</v>
+        <v>1.02473468271303</v>
       </c>
       <c r="J20">
-        <v>0.9400365748174847</v>
+        <v>1.030753524039338</v>
       </c>
       <c r="K20">
-        <v>0.9359615770823934</v>
+        <v>1.03080173402487</v>
       </c>
       <c r="L20">
-        <v>0.935585024326554</v>
+        <v>1.035987804979542</v>
       </c>
       <c r="M20">
-        <v>0.9042395252708492</v>
+        <v>1.041274935934574</v>
       </c>
       <c r="N20">
-        <v>0.9413715345774279</v>
+        <v>1.032217312272556</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.8853985517674796</v>
+        <v>1.022508388856925</v>
       </c>
       <c r="D21">
-        <v>0.8987593384237814</v>
+        <v>1.02552882834141</v>
       </c>
       <c r="E21">
-        <v>0.8959051119669675</v>
+        <v>1.030711752388384</v>
       </c>
       <c r="F21">
-        <v>0.8524558115771708</v>
+        <v>1.035563300348752</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.002558511375012</v>
+        <v>1.024401648316765</v>
       </c>
       <c r="J21">
-        <v>0.9206136602682128</v>
+        <v>1.029192832874342</v>
       </c>
       <c r="K21">
-        <v>0.9159510965004523</v>
+        <v>1.029148376921624</v>
       </c>
       <c r="L21">
-        <v>0.9131689834529672</v>
+        <v>1.034311683088908</v>
       </c>
       <c r="M21">
-        <v>0.8708993994164325</v>
+        <v>1.039145064454505</v>
       </c>
       <c r="N21">
-        <v>0.9219210372616563</v>
+        <v>1.030654404747092</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.8644106666745414</v>
+        <v>1.021258084521656</v>
       </c>
       <c r="D22">
-        <v>0.8789719164809933</v>
+        <v>1.024342744856706</v>
       </c>
       <c r="E22">
-        <v>0.8733921112602674</v>
+        <v>1.029509039268743</v>
       </c>
       <c r="F22">
-        <v>0.818181099937286</v>
+        <v>1.034064649180086</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>0.9918133998442319</v>
+        <v>1.024180610506645</v>
       </c>
       <c r="J22">
-        <v>0.9025169193534468</v>
+        <v>1.028200082617784</v>
       </c>
       <c r="K22">
-        <v>0.8973937053624381</v>
+        <v>1.028097486291747</v>
       </c>
       <c r="L22">
-        <v>0.8919714432991175</v>
+        <v>1.033243419921438</v>
       </c>
       <c r="M22">
-        <v>0.8384815114225933</v>
+        <v>1.037781263272084</v>
       </c>
       <c r="N22">
-        <v>0.9037985968990664</v>
+        <v>1.0296602446713</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.8766686426531379</v>
+        <v>1.02192199340492</v>
       </c>
       <c r="D23">
-        <v>0.890547234636886</v>
+        <v>1.024972564044898</v>
       </c>
       <c r="E23">
-        <v>0.8866224298565869</v>
+        <v>1.030147967791974</v>
       </c>
       <c r="F23">
-        <v>0.8384684342997194</v>
+        <v>1.034861455945284</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>0.9982063114401307</v>
+        <v>1.024298897597907</v>
       </c>
       <c r="J23">
-        <v>0.9131419033248543</v>
+        <v>1.028727461910341</v>
       </c>
       <c r="K23">
-        <v>0.9082781846185078</v>
+        <v>1.028655675633844</v>
       </c>
       <c r="L23">
-        <v>0.9044574640633637</v>
+        <v>1.033811111126709</v>
       </c>
       <c r="M23">
-        <v>0.8576903748996666</v>
+        <v>1.038506605911302</v>
       </c>
       <c r="N23">
-        <v>0.9144386695664158</v>
+        <v>1.030188372902942</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9087895885983068</v>
+        <v>1.024511671169881</v>
       </c>
       <c r="D24">
-        <v>0.9206689804936874</v>
+        <v>1.027429017275826</v>
       </c>
       <c r="E24">
-        <v>0.9203163509777407</v>
+        <v>1.032633814403907</v>
       </c>
       <c r="F24">
-        <v>0.8883891085480897</v>
+        <v>1.037946950153745</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.013522986647962</v>
+        <v>1.024740070144708</v>
       </c>
       <c r="J24">
-        <v>0.9403147922256517</v>
+        <v>1.030779497929494</v>
       </c>
       <c r="K24">
-        <v>0.9362488500141075</v>
+        <v>1.030829263620918</v>
       </c>
       <c r="L24">
-        <v>0.9359039169431095</v>
+        <v>1.036015664878042</v>
       </c>
       <c r="M24">
-        <v>0.9047075417597322</v>
+        <v>1.041310231415687</v>
       </c>
       <c r="N24">
-        <v>0.9416501470862262</v>
+        <v>1.032243323048615</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9350411635253123</v>
+        <v>1.02746881286982</v>
       </c>
       <c r="D25">
-        <v>0.9451490017067091</v>
+        <v>1.030233505617484</v>
       </c>
       <c r="E25">
-        <v>0.9470755460345789</v>
+        <v>1.035459268750421</v>
       </c>
       <c r="F25">
-        <v>0.926533960278706</v>
+        <v>1.041423978521735</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.024761917776371</v>
+        <v>1.025201963616317</v>
       </c>
       <c r="J25">
-        <v>0.9619714663057573</v>
+        <v>1.033112246131498</v>
       </c>
       <c r="K25">
-        <v>0.9586629972579773</v>
+        <v>1.033303632189103</v>
       </c>
       <c r="L25">
-        <v>0.9605550464909676</v>
+        <v>1.038512869240653</v>
       </c>
       <c r="M25">
-        <v>0.9403909197431929</v>
+        <v>1.044458937502993</v>
       </c>
       <c r="N25">
-        <v>0.9633375761275808</v>
+        <v>1.034579384020636</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_161/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_161/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.029790378231177</v>
+        <v>0.9521532111149028</v>
       </c>
       <c r="D2">
-        <v>1.032434797430825</v>
+        <v>0.9610677770700016</v>
       </c>
       <c r="E2">
-        <v>1.037666915295026</v>
+        <v>0.9642196937199632</v>
       </c>
       <c r="F2">
-        <v>1.044116600494014</v>
+        <v>0.9503489263602634</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.025530627837826</v>
+        <v>1.031502659650744</v>
       </c>
       <c r="J2">
-        <v>1.034935204090576</v>
+        <v>0.9758656697858815</v>
       </c>
       <c r="K2">
-        <v>1.035240037679677</v>
+        <v>0.9730975337331652</v>
       </c>
       <c r="L2">
-        <v>1.040457146806198</v>
+        <v>0.976201084417622</v>
       </c>
       <c r="M2">
-        <v>1.046888555230884</v>
+        <v>0.9625462375831773</v>
       </c>
       <c r="N2">
-        <v>1.036404930789112</v>
+        <v>0.9772515109703344</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.031455340026064</v>
+        <v>0.963197367774742</v>
       </c>
       <c r="D3">
-        <v>1.03401324764155</v>
+        <v>0.9713310517213402</v>
       </c>
       <c r="E3">
-        <v>1.039244068791146</v>
+        <v>0.9751706506572196</v>
       </c>
       <c r="F3">
-        <v>1.046026200310985</v>
+        <v>0.96531154387748</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.025746490092146</v>
+        <v>1.03559388961921</v>
       </c>
       <c r="J3">
-        <v>1.036237693180467</v>
+        <v>0.9847441934444902</v>
       </c>
       <c r="K3">
-        <v>1.036625201758676</v>
+        <v>0.982344393018013</v>
       </c>
       <c r="L3">
-        <v>1.041842126006698</v>
+        <v>0.9861314045623747</v>
       </c>
       <c r="M3">
-        <v>1.048606462676094</v>
+        <v>0.9764083916117088</v>
       </c>
       <c r="N3">
-        <v>1.037709269562908</v>
+        <v>0.986142643150919</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.032523344385266</v>
+        <v>0.9698541965210279</v>
       </c>
       <c r="D4">
-        <v>1.035025638085954</v>
+        <v>0.9775140842389092</v>
       </c>
       <c r="E4">
-        <v>1.040252915167518</v>
+        <v>0.9817291502437738</v>
       </c>
       <c r="F4">
-        <v>1.047241185262533</v>
+        <v>0.9741779820865472</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.025875705303043</v>
+        <v>1.037953898149361</v>
       </c>
       <c r="J4">
-        <v>1.037070919323903</v>
+        <v>0.9900617860232847</v>
       </c>
       <c r="K4">
-        <v>1.037512069345145</v>
+        <v>0.9878916904093673</v>
       </c>
       <c r="L4">
-        <v>1.04272617204335</v>
+        <v>0.9920532076126981</v>
       </c>
       <c r="M4">
-        <v>1.049697050643813</v>
+        <v>0.9845983814081625</v>
       </c>
       <c r="N4">
-        <v>1.03854367898304</v>
+        <v>0.991467787321112</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.032970131503664</v>
+        <v>0.9725514111274383</v>
       </c>
       <c r="D5">
-        <v>1.035449130529505</v>
+        <v>0.9800187534407565</v>
       </c>
       <c r="E5">
-        <v>1.040674274147368</v>
+        <v>0.9843774896129988</v>
       </c>
       <c r="F5">
-        <v>1.047747074219561</v>
+        <v>0.9777377241003259</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.025927532733855</v>
+        <v>1.038886067976601</v>
       </c>
       <c r="J5">
-        <v>1.037418945245009</v>
+        <v>0.992208966902187</v>
       </c>
       <c r="K5">
-        <v>1.037882681659978</v>
+        <v>0.9901336446424551</v>
       </c>
       <c r="L5">
-        <v>1.043094955147755</v>
+        <v>0.9944387566963143</v>
       </c>
       <c r="M5">
-        <v>1.05015055390555</v>
+        <v>0.9878809154547026</v>
       </c>
       <c r="N5">
-        <v>1.038892199140873</v>
+        <v>0.9936180174431473</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.033045020849787</v>
+        <v>0.9729987317428358</v>
       </c>
       <c r="D6">
-        <v>1.035520113550262</v>
+        <v>0.980434111610942</v>
       </c>
       <c r="E6">
-        <v>1.040744861324232</v>
+        <v>0.9848161984134137</v>
       </c>
       <c r="F6">
-        <v>1.047831729916726</v>
+        <v>0.9783262526062443</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.025936088770316</v>
+        <v>1.039039279062336</v>
       </c>
       <c r="J6">
-        <v>1.03747724848126</v>
+        <v>0.9925646486712426</v>
       </c>
       <c r="K6">
-        <v>1.037944779356876</v>
+        <v>0.9905051408312358</v>
       </c>
       <c r="L6">
-        <v>1.043156708109249</v>
+        <v>0.9948336078989691</v>
       </c>
       <c r="M6">
-        <v>1.05022640849053</v>
+        <v>0.9884232868270139</v>
       </c>
       <c r="N6">
-        <v>1.038950585174407</v>
+        <v>0.9939742043211123</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.0325293229846</v>
+        <v>0.9698906169367659</v>
       </c>
       <c r="D7">
-        <v>1.035031305087657</v>
+        <v>0.9775479068106674</v>
       </c>
       <c r="E7">
-        <v>1.040258556185227</v>
+        <v>0.981764945495803</v>
       </c>
       <c r="F7">
-        <v>1.047247964122297</v>
+        <v>0.9742261755243715</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.025876407613015</v>
+        <v>1.03796657962304</v>
       </c>
       <c r="J7">
-        <v>1.037075578514612</v>
+        <v>0.9900908080295431</v>
       </c>
       <c r="K7">
-        <v>1.037517030195707</v>
+        <v>0.9879219855187377</v>
       </c>
       <c r="L7">
-        <v>1.042731110973677</v>
+        <v>0.9920854732088182</v>
       </c>
       <c r="M7">
-        <v>1.049703129878111</v>
+        <v>0.984642844144059</v>
       </c>
       <c r="N7">
-        <v>1.038548344790334</v>
+        <v>0.991496850541948</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.030355013829105</v>
+        <v>0.9559979888304333</v>
       </c>
       <c r="D8">
-        <v>1.032970119311596</v>
+        <v>0.9646415202478933</v>
       </c>
       <c r="E8">
-        <v>1.038202361576885</v>
+        <v>0.968041967983771</v>
       </c>
       <c r="F8">
-        <v>1.044766268594874</v>
+        <v>0.9555936172422478</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.025605752124009</v>
+        <v>1.03295094484962</v>
       </c>
       <c r="J8">
-        <v>1.03537738616054</v>
+        <v>0.9789644284149319</v>
       </c>
       <c r="K8">
-        <v>1.035710130553485</v>
+        <v>0.9763227464680303</v>
       </c>
       <c r="L8">
-        <v>1.040927739051362</v>
+        <v>0.9796729678884881</v>
       </c>
       <c r="M8">
-        <v>1.047473512424248</v>
+        <v>0.9674107041733059</v>
       </c>
       <c r="N8">
-        <v>1.036847740808334</v>
+        <v>0.9803546701920705</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.026450511984433</v>
+        <v>0.9267064767858912</v>
       </c>
       <c r="D9">
-        <v>1.029267837817265</v>
+        <v>0.937385955600491</v>
       </c>
       <c r="E9">
-        <v>1.034487958716023</v>
+        <v>0.9386433516315649</v>
       </c>
       <c r="F9">
-        <v>1.040232445371715</v>
+        <v>0.9146449163349401</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.025048185766045</v>
+        <v>1.021310518098892</v>
       </c>
       <c r="J9">
-        <v>1.032310269153126</v>
+        <v>0.9551421859203089</v>
       </c>
       <c r="K9">
-        <v>1.032452534312113</v>
+        <v>0.9515837427210315</v>
       </c>
       <c r="L9">
-        <v>1.037655476869034</v>
+        <v>0.9528170564614801</v>
       </c>
       <c r="M9">
-        <v>1.043381277903752</v>
+        <v>0.9292933267112958</v>
       </c>
       <c r="N9">
-        <v>1.033776268142966</v>
+        <v>0.9564985973806559</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.023796046083306</v>
+        <v>0.9012136726391656</v>
       </c>
       <c r="D10">
-        <v>1.026750248339813</v>
+        <v>0.9135853619767613</v>
       </c>
       <c r="E10">
-        <v>1.031947920622538</v>
+        <v>0.9124758718351034</v>
       </c>
       <c r="F10">
-        <v>1.037097979329409</v>
+        <v>0.8769738371860055</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.024621456462771</v>
+        <v>1.010075224447769</v>
       </c>
       <c r="J10">
-        <v>1.03021327089459</v>
+        <v>0.9339800264009487</v>
       </c>
       <c r="K10">
-        <v>1.03022922401464</v>
+        <v>0.929712264637494</v>
       </c>
       <c r="L10">
-        <v>1.035408059546497</v>
+        <v>0.9286282360383465</v>
       </c>
       <c r="M10">
-        <v>1.040539659534501</v>
+        <v>0.8939869847698145</v>
       </c>
       <c r="N10">
-        <v>1.031676291906374</v>
+        <v>0.9353063851674442</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.022633876220492</v>
+        <v>0.8871091520805235</v>
       </c>
       <c r="D11">
-        <v>1.025647865043605</v>
+        <v>0.9003658866855285</v>
       </c>
       <c r="E11">
-        <v>1.030832333681935</v>
+        <v>0.897711968596919</v>
       </c>
       <c r="F11">
-        <v>1.035713255492515</v>
+        <v>0.8551564884871586</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.024423423685298</v>
+        <v>1.003393584227671</v>
       </c>
       <c r="J11">
-        <v>1.029292367624328</v>
+        <v>0.9220694566860022</v>
       </c>
       <c r="K11">
-        <v>1.029253774775063</v>
+        <v>0.9174477683977608</v>
       </c>
       <c r="L11">
-        <v>1.034418700953928</v>
+        <v>0.9148602442364203</v>
       </c>
       <c r="M11">
-        <v>1.039281422383079</v>
+        <v>0.8734466176550496</v>
       </c>
       <c r="N11">
-        <v>1.030754080847839</v>
+        <v>0.9233789010773411</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.022200226640991</v>
+        <v>0.8809806823236991</v>
       </c>
       <c r="D12">
-        <v>1.02523650317517</v>
+        <v>0.8946063989847663</v>
       </c>
       <c r="E12">
-        <v>1.030415537075149</v>
+        <v>0.8912207645064782</v>
       </c>
       <c r="F12">
-        <v>1.035194695155057</v>
+        <v>0.8454213485480638</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.024347854467616</v>
+        <v>1.00037539135805</v>
       </c>
       <c r="J12">
-        <v>1.028948322670649</v>
+        <v>0.9168415707681904</v>
       </c>
       <c r="K12">
-        <v>1.028889490260004</v>
+        <v>0.9120756197971155</v>
       </c>
       <c r="L12">
-        <v>1.034048721726436</v>
+        <v>0.9087776831239374</v>
       </c>
       <c r="M12">
-        <v>1.038809801088181</v>
+        <v>0.8642598456949074</v>
       </c>
       <c r="N12">
-        <v>1.030409547310863</v>
+        <v>0.9181435909618793</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.022293335823582</v>
+        <v>0.8823510083906817</v>
       </c>
       <c r="D13">
-        <v>1.025324827893197</v>
+        <v>0.8958951563407267</v>
       </c>
       <c r="E13">
-        <v>1.030505051678372</v>
+        <v>0.8926765694134227</v>
       </c>
       <c r="F13">
-        <v>1.035306120114996</v>
+        <v>0.8476126745104263</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.024364155652759</v>
+        <v>1.001056695778249</v>
       </c>
       <c r="J13">
-        <v>1.029022211832539</v>
+        <v>0.9180135267299496</v>
       </c>
       <c r="K13">
-        <v>1.028967719931567</v>
+        <v>0.9132793025890122</v>
       </c>
       <c r="L13">
-        <v>1.034128196946043</v>
+        <v>0.9101434519032138</v>
       </c>
       <c r="M13">
-        <v>1.038911159377027</v>
+        <v>0.8663288996664179</v>
       </c>
       <c r="N13">
-        <v>1.030483541403838</v>
+        <v>0.9193172112355295</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.022598071051835</v>
+        <v>0.8866257824371037</v>
       </c>
       <c r="D14">
-        <v>1.025613900531133</v>
+        <v>0.8999119991932062</v>
       </c>
       <c r="E14">
-        <v>1.030797930792768</v>
+        <v>0.8972017806744016</v>
       </c>
       <c r="F14">
-        <v>1.035670477562689</v>
+        <v>0.854394622439405</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.024417218252293</v>
+        <v>1.00315818231446</v>
       </c>
       <c r="J14">
-        <v>1.029263969424773</v>
+        <v>0.9216583502291911</v>
       </c>
       <c r="K14">
-        <v>1.029223703139586</v>
+        <v>0.9170250647592829</v>
       </c>
       <c r="L14">
-        <v>1.034388169406463</v>
+        <v>0.914382838895051</v>
       </c>
       <c r="M14">
-        <v>1.039242525317561</v>
+        <v>0.8727281458412789</v>
       </c>
       <c r="N14">
-        <v>1.030725642319584</v>
+        <v>0.9229672108022071</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.022785566188589</v>
+        <v>0.8891177917617299</v>
       </c>
       <c r="D15">
-        <v>1.025791756146839</v>
+        <v>0.9022513577297321</v>
       </c>
       <c r="E15">
-        <v>1.030978061214921</v>
+        <v>0.8998288910680785</v>
       </c>
       <c r="F15">
-        <v>1.035894409466145</v>
+        <v>0.8583118520802976</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.024449644784135</v>
+        <v>1.004367069742979</v>
       </c>
       <c r="J15">
-        <v>1.029412660470606</v>
+        <v>0.9237756278787145</v>
       </c>
       <c r="K15">
-        <v>1.029381161841254</v>
+        <v>0.9192025225108299</v>
       </c>
       <c r="L15">
-        <v>1.034548015823745</v>
+        <v>0.9168399514858558</v>
       </c>
       <c r="M15">
-        <v>1.039446124391754</v>
+        <v>0.8764213961372381</v>
       </c>
       <c r="N15">
-        <v>1.030874544523756</v>
+        <v>0.9250874952288479</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.023872902267084</v>
+        <v>0.9020603744706255</v>
       </c>
       <c r="D16">
-        <v>1.026823147812767</v>
+        <v>0.9143775692464006</v>
       </c>
       <c r="E16">
-        <v>1.03202162240292</v>
+        <v>0.9133550662644087</v>
       </c>
       <c r="F16">
-        <v>1.03718929287952</v>
+        <v>0.8782595952568919</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.02463431832802</v>
+        <v>1.010465284812845</v>
       </c>
       <c r="J16">
-        <v>1.030274112942586</v>
+        <v>0.9346900771646274</v>
       </c>
       <c r="K16">
-        <v>1.030293689132628</v>
+        <v>0.93044447866859</v>
       </c>
       <c r="L16">
-        <v>1.035473374093617</v>
+        <v>0.9294453129743117</v>
       </c>
       <c r="M16">
-        <v>1.040622572219335</v>
+        <v>0.8951954138007623</v>
       </c>
       <c r="N16">
-        <v>1.031737220357057</v>
+        <v>0.9360174442846515</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.024551506634015</v>
+        <v>0.9091927390231499</v>
       </c>
       <c r="D17">
-        <v>1.027466800181903</v>
+        <v>0.9210456511172553</v>
       </c>
       <c r="E17">
-        <v>1.032671971030577</v>
+        <v>0.9207319718462895</v>
       </c>
       <c r="F17">
-        <v>1.03799412425406</v>
+        <v>0.888991076379674</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.024746596848006</v>
+        <v>1.013703821311923</v>
       </c>
       <c r="J17">
-        <v>1.030810998111268</v>
+        <v>0.9406507563913958</v>
       </c>
       <c r="K17">
-        <v>1.030862651111752</v>
+        <v>0.9365957725317147</v>
       </c>
       <c r="L17">
-        <v>1.036049450769462</v>
+        <v>0.936288920785487</v>
       </c>
       <c r="M17">
-        <v>1.04135302970903</v>
+        <v>0.9052723602020384</v>
       </c>
       <c r="N17">
-        <v>1.03227486796426</v>
+        <v>0.9419865883596213</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.024946096566892</v>
+        <v>0.9130942539928842</v>
       </c>
       <c r="D18">
-        <v>1.027841053032357</v>
+        <v>0.9246895508862679</v>
       </c>
       <c r="E18">
-        <v>1.033049794110506</v>
+        <v>0.9247461208428508</v>
       </c>
       <c r="F18">
-        <v>1.038460923315393</v>
+        <v>0.8947890396407834</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.024810809375942</v>
+        <v>1.015440342536918</v>
       </c>
       <c r="J18">
-        <v>1.031122913615913</v>
+        <v>0.9438963330379734</v>
       </c>
       <c r="K18">
-        <v>1.031193290823122</v>
+        <v>0.9399485166793261</v>
       </c>
       <c r="L18">
-        <v>1.036383905953662</v>
+        <v>0.9400038881837727</v>
       </c>
       <c r="M18">
-        <v>1.041776416751084</v>
+        <v>0.9107098349718957</v>
       </c>
       <c r="N18">
-        <v>1.032587226424699</v>
+        <v>0.9452367740973099</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.025080434627928</v>
+        <v>0.9143867593501201</v>
       </c>
       <c r="D19">
-        <v>1.027968465051317</v>
+        <v>0.9258961918724856</v>
       </c>
       <c r="E19">
-        <v>1.033178366769403</v>
+        <v>0.9260727822507805</v>
       </c>
       <c r="F19">
-        <v>1.038619643486898</v>
+        <v>0.8966989476541005</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.024832488045569</v>
+        <v>1.016010256800159</v>
       </c>
       <c r="J19">
-        <v>1.031229059627724</v>
+        <v>0.9449692784067691</v>
       </c>
       <c r="K19">
-        <v>1.031305823768526</v>
+        <v>0.9410574075138198</v>
       </c>
       <c r="L19">
-        <v>1.036497683351187</v>
+        <v>0.9412302907821296</v>
       </c>
       <c r="M19">
-        <v>1.04192032916737</v>
+        <v>0.9124999237269253</v>
       </c>
       <c r="N19">
-        <v>1.032693523176021</v>
+        <v>0.9463112431715982</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.024478826230301</v>
+        <v>0.9084558353393271</v>
       </c>
       <c r="D20">
-        <v>1.027397864625299</v>
+        <v>0.9203571283803929</v>
       </c>
       <c r="E20">
-        <v>1.032602351789082</v>
+        <v>0.919972154133548</v>
       </c>
       <c r="F20">
-        <v>1.03790804768927</v>
+        <v>0.8878903515132691</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.02473468271303</v>
+        <v>1.01337308111153</v>
       </c>
       <c r="J20">
-        <v>1.030753524039338</v>
+        <v>0.9400365748174861</v>
       </c>
       <c r="K20">
-        <v>1.03080173402487</v>
+        <v>0.935961577082395</v>
       </c>
       <c r="L20">
-        <v>1.035987804979542</v>
+        <v>0.9355850243265552</v>
       </c>
       <c r="M20">
-        <v>1.041274935934574</v>
+        <v>0.9042395252708507</v>
       </c>
       <c r="N20">
-        <v>1.032217312272556</v>
+        <v>0.9413715345774293</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.022508388856925</v>
+        <v>0.8853985517674811</v>
       </c>
       <c r="D21">
-        <v>1.02552882834141</v>
+        <v>0.8987593384237832</v>
       </c>
       <c r="E21">
-        <v>1.030711752388384</v>
+        <v>0.8959051119669689</v>
       </c>
       <c r="F21">
-        <v>1.035563300348752</v>
+        <v>0.8524558115771723</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.024401648316765</v>
+        <v>1.002558511375012</v>
       </c>
       <c r="J21">
-        <v>1.029192832874342</v>
+        <v>0.9206136602682143</v>
       </c>
       <c r="K21">
-        <v>1.029148376921624</v>
+        <v>0.9159510965004539</v>
       </c>
       <c r="L21">
-        <v>1.034311683088908</v>
+        <v>0.9131689834529687</v>
       </c>
       <c r="M21">
-        <v>1.039145064454505</v>
+        <v>0.8708993994164339</v>
       </c>
       <c r="N21">
-        <v>1.030654404747092</v>
+        <v>0.9219210372616581</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.021258084521656</v>
+        <v>0.8644106666745424</v>
       </c>
       <c r="D22">
-        <v>1.024342744856706</v>
+        <v>0.878971916480994</v>
       </c>
       <c r="E22">
-        <v>1.029509039268743</v>
+        <v>0.8733921112602684</v>
       </c>
       <c r="F22">
-        <v>1.034064649180086</v>
+        <v>0.818181099937288</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.024180610506645</v>
+        <v>0.9918133998442326</v>
       </c>
       <c r="J22">
-        <v>1.028200082617784</v>
+        <v>0.9025169193534476</v>
       </c>
       <c r="K22">
-        <v>1.028097486291747</v>
+        <v>0.8973937053624389</v>
       </c>
       <c r="L22">
-        <v>1.033243419921438</v>
+        <v>0.8919714432991186</v>
       </c>
       <c r="M22">
-        <v>1.037781263272084</v>
+        <v>0.8384815114225952</v>
       </c>
       <c r="N22">
-        <v>1.0296602446713</v>
+        <v>0.9037985968990672</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.02192199340492</v>
+        <v>0.8766686426531399</v>
       </c>
       <c r="D23">
-        <v>1.024972564044898</v>
+        <v>0.8905472346368879</v>
       </c>
       <c r="E23">
-        <v>1.030147967791974</v>
+        <v>0.8866224298565886</v>
       </c>
       <c r="F23">
-        <v>1.034861455945284</v>
+        <v>0.8384684342997215</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.024298897597907</v>
+        <v>0.9982063114401312</v>
       </c>
       <c r="J23">
-        <v>1.028727461910341</v>
+        <v>0.9131419033248557</v>
       </c>
       <c r="K23">
-        <v>1.028655675633844</v>
+        <v>0.9082781846185093</v>
       </c>
       <c r="L23">
-        <v>1.033811111126709</v>
+        <v>0.904457464063365</v>
       </c>
       <c r="M23">
-        <v>1.038506605911302</v>
+        <v>0.8576903748996687</v>
       </c>
       <c r="N23">
-        <v>1.030188372902942</v>
+        <v>0.9144386695664173</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.024511671169881</v>
+        <v>0.9087895885983084</v>
       </c>
       <c r="D24">
-        <v>1.027429017275826</v>
+        <v>0.9206689804936889</v>
       </c>
       <c r="E24">
-        <v>1.032633814403907</v>
+        <v>0.9203163509777416</v>
       </c>
       <c r="F24">
-        <v>1.037946950153745</v>
+        <v>0.8883891085480905</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.024740070144708</v>
+        <v>1.013522986647963</v>
       </c>
       <c r="J24">
-        <v>1.030779497929494</v>
+        <v>0.9403147922256531</v>
       </c>
       <c r="K24">
-        <v>1.030829263620918</v>
+        <v>0.9362488500141091</v>
       </c>
       <c r="L24">
-        <v>1.036015664878042</v>
+        <v>0.9359039169431105</v>
       </c>
       <c r="M24">
-        <v>1.041310231415687</v>
+        <v>0.904707541759733</v>
       </c>
       <c r="N24">
-        <v>1.032243323048615</v>
+        <v>0.9416501470862274</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.02746881286982</v>
+        <v>0.9350411635253119</v>
       </c>
       <c r="D25">
-        <v>1.030233505617484</v>
+        <v>0.9451490017067089</v>
       </c>
       <c r="E25">
-        <v>1.035459268750421</v>
+        <v>0.9470755460345787</v>
       </c>
       <c r="F25">
-        <v>1.041423978521735</v>
+        <v>0.9265339602787058</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.025201963616317</v>
+        <v>1.024761917776371</v>
       </c>
       <c r="J25">
-        <v>1.033112246131498</v>
+        <v>0.9619714663057569</v>
       </c>
       <c r="K25">
-        <v>1.033303632189103</v>
+        <v>0.9586629972579771</v>
       </c>
       <c r="L25">
-        <v>1.038512869240653</v>
+        <v>0.9605550464909672</v>
       </c>
       <c r="M25">
-        <v>1.044458937502993</v>
+        <v>0.9403909197431926</v>
       </c>
       <c r="N25">
-        <v>1.034579384020636</v>
+        <v>0.9633375761275805</v>
       </c>
     </row>
   </sheetData>
